--- a/baza3.xlsx
+++ b/baza3.xlsx
@@ -13,11 +13,31 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -67,26 +87,26 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -382,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F98"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -394,24 +414,21 @@
     <col min="3" max="3" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
-      <c r="A1" s="1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2">
-        <v>9.0300000000000005E-2</v>
-      </c>
-      <c r="C1" s="3">
-        <v>-0.23499999999999999</v>
-      </c>
-      <c r="D1" s="4">
-        <v>5.7095808383233999</v>
-      </c>
-      <c r="E1" s="4">
-        <v>17.611111111111001</v>
-      </c>
-      <c r="F1" s="4">
-        <v>0.61976047904192</v>
+    <row r="1" spans="1:6">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
@@ -419,19 +436,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>0.34610000000000002</v>
+        <v>9.0300000000000005E-2</v>
       </c>
       <c r="C2" s="3">
-        <v>-0.26200000000000001</v>
+        <v>-0.23499999999999999</v>
       </c>
       <c r="D2" s="4">
-        <v>5.968</v>
+        <v>5.7095808383233999</v>
       </c>
       <c r="E2" s="4">
-        <v>27.6</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.48299999999999998</v>
+        <v>17.611111111111001</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.61976047904192</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15">
@@ -439,19 +456,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>0.33460000000000001</v>
+        <v>0.34610000000000002</v>
       </c>
       <c r="C3" s="3">
-        <v>-0.26100000000000001</v>
+        <v>-0.26200000000000001</v>
       </c>
       <c r="D3" s="4">
-        <v>6.2990000000000004</v>
+        <v>5.968</v>
       </c>
       <c r="E3" s="4">
-        <v>19.428571428571001</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.47399999999999998</v>
+        <v>27.6</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.48299999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15">
@@ -459,19 +476,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>0.26279999999999998</v>
+        <v>0.33460000000000001</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.224</v>
+        <v>-0.26100000000000001</v>
       </c>
       <c r="D4" s="4">
-        <v>6.1550000000000002</v>
+        <v>6.2990000000000004</v>
       </c>
       <c r="E4" s="4">
-        <v>14.4</v>
+        <v>19.428571428571001</v>
       </c>
       <c r="F4" s="4">
-        <v>0.51500000000000001</v>
+        <v>0.47399999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15">
@@ -479,19 +496,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>0.30320000000000003</v>
+        <v>0.26279999999999998</v>
       </c>
       <c r="C5" s="3">
-        <v>-0.249</v>
+        <v>-0.224</v>
       </c>
       <c r="D5" s="4">
-        <v>5.8739999999999997</v>
+        <v>6.1550000000000002</v>
       </c>
       <c r="E5" s="4">
-        <v>18.25</v>
+        <v>14.4</v>
       </c>
       <c r="F5" s="4">
-        <v>0.54300000000000004</v>
+        <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15">
@@ -499,19 +516,19 @@
         <v>1</v>
       </c>
       <c r="B6" s="2">
-        <v>0.32079999999999997</v>
+        <v>0.30320000000000003</v>
       </c>
       <c r="C6" s="3">
-        <v>-0.26100000000000001</v>
+        <v>-0.249</v>
       </c>
       <c r="D6" s="4">
-        <v>5.4109999999999996</v>
+        <v>5.8739999999999997</v>
       </c>
       <c r="E6" s="4">
-        <v>8.0180180180179992</v>
+        <v>18.25</v>
       </c>
       <c r="F6" s="4">
-        <v>0.56499999999999995</v>
+        <v>0.54300000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15">
@@ -519,19 +536,19 @@
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>0.31340000000000001</v>
+        <v>0.32079999999999997</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.25600000000000001</v>
+        <v>-0.26100000000000001</v>
       </c>
       <c r="D7" s="4">
-        <v>5.532</v>
+        <v>5.4109999999999996</v>
       </c>
       <c r="E7" s="4">
-        <v>15.409836065574</v>
+        <v>8.0180180180179992</v>
       </c>
       <c r="F7" s="4">
-        <v>0.52500000000000002</v>
+        <v>0.56499999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15">
@@ -539,19 +556,19 @@
         <v>1</v>
       </c>
       <c r="B8" s="2">
-        <v>0.2717</v>
+        <v>0.31340000000000001</v>
       </c>
       <c r="C8" s="3">
-        <v>-0.308</v>
+        <v>-0.25600000000000001</v>
       </c>
       <c r="D8" s="4">
-        <v>5.0734214390602004</v>
+        <v>5.532</v>
       </c>
       <c r="E8" s="4">
-        <v>10.366666666666999</v>
+        <v>15.409836065574</v>
       </c>
       <c r="F8" s="4">
-        <v>0.58149779735683005</v>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15">
@@ -559,19 +576,19 @@
         <v>1</v>
       </c>
       <c r="B9" s="2">
-        <v>0.40429999999999999</v>
+        <v>0.2717</v>
       </c>
       <c r="C9" s="3">
-        <v>-0.251</v>
-      </c>
-      <c r="D9" s="5">
-        <v>5.3780000000000001</v>
-      </c>
-      <c r="E9" s="6">
-        <v>20.695652173913</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0.433</v>
+        <v>-0.308</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5.0734214390602004</v>
+      </c>
+      <c r="E9" s="4">
+        <v>10.366666666666999</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.58149779735683005</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15">
@@ -579,19 +596,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="2">
-        <v>0.38129999999999997</v>
+        <v>0.40429999999999999</v>
       </c>
       <c r="C10" s="3">
-        <v>-0.27900000000000003</v>
-      </c>
-      <c r="D10" s="4">
-        <v>5.6769999999999996</v>
-      </c>
-      <c r="E10" s="4">
-        <v>18.627450980391998</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.47699999999999998</v>
+        <v>-0.251</v>
+      </c>
+      <c r="D10" s="5">
+        <v>5.3780000000000001</v>
+      </c>
+      <c r="E10" s="6">
+        <v>20.695652173913</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.433</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15">
@@ -599,19 +616,19 @@
         <v>1</v>
       </c>
       <c r="B11" s="2">
-        <v>0.40360000000000001</v>
+        <v>0.38129999999999997</v>
       </c>
       <c r="C11" s="3">
-        <v>-0.3</v>
+        <v>-0.27900000000000003</v>
       </c>
       <c r="D11" s="4">
-        <v>5.3970000000000002</v>
+        <v>5.6769999999999996</v>
       </c>
       <c r="E11" s="4">
-        <v>15.344262295082</v>
+        <v>18.627450980391998</v>
       </c>
       <c r="F11" s="4">
-        <v>0.42</v>
+        <v>0.47699999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15">
@@ -619,19 +636,19 @@
         <v>1</v>
       </c>
       <c r="B12" s="2">
-        <v>0.40629999999999999</v>
+        <v>0.40360000000000001</v>
       </c>
       <c r="C12" s="3">
-        <v>-0.29599999999999999</v>
+        <v>-0.3</v>
       </c>
       <c r="D12" s="4">
-        <v>5.415</v>
+        <v>5.3970000000000002</v>
       </c>
       <c r="E12" s="4">
-        <v>19.854166666666998</v>
+        <v>15.344262295082</v>
       </c>
       <c r="F12" s="4">
-        <v>0.45400000000000001</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15">
@@ -639,19 +656,19 @@
         <v>1</v>
       </c>
       <c r="B13" s="2">
-        <v>0.34439999999999998</v>
+        <v>0.40629999999999999</v>
       </c>
       <c r="C13" s="3">
-        <v>-0.26700000000000002</v>
+        <v>-0.29599999999999999</v>
       </c>
       <c r="D13" s="4">
-        <v>5.86</v>
+        <v>5.415</v>
       </c>
       <c r="E13" s="4">
-        <v>22.232558139535001</v>
+        <v>19.854166666666998</v>
       </c>
       <c r="F13" s="4">
-        <v>0.45900000000000002</v>
+        <v>0.45400000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15">
@@ -659,19 +676,19 @@
         <v>1</v>
       </c>
       <c r="B14" s="2">
-        <v>0.31359999999999999</v>
+        <v>0.34439999999999998</v>
       </c>
       <c r="C14" s="3">
-        <v>-0.25900000000000001</v>
+        <v>-0.26700000000000002</v>
       </c>
       <c r="D14" s="4">
-        <v>4.9020000000000001</v>
+        <v>5.86</v>
       </c>
       <c r="E14" s="4">
-        <v>17.886792452830001</v>
+        <v>22.232558139535001</v>
       </c>
       <c r="F14" s="4">
-        <v>0.40600000000000003</v>
+        <v>0.45900000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15">
@@ -679,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B15" s="2">
-        <v>0.38</v>
+        <v>0.31359999999999999</v>
       </c>
       <c r="C15" s="3">
-        <v>-0.27900000000000003</v>
+        <v>-0.25900000000000001</v>
       </c>
       <c r="D15" s="4">
-        <v>5.53</v>
+        <v>4.9020000000000001</v>
       </c>
       <c r="E15" s="4">
-        <v>19.387755102041002</v>
+        <v>17.886792452830001</v>
       </c>
       <c r="F15" s="4">
-        <v>0.45100000000000001</v>
+        <v>0.40600000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15">
@@ -699,19 +716,19 @@
         <v>1</v>
       </c>
       <c r="B16" s="2">
-        <v>0.32229999999999998</v>
+        <v>0.38</v>
       </c>
       <c r="C16" s="3">
-        <v>-0.25</v>
+        <v>-0.27900000000000003</v>
       </c>
       <c r="D16" s="4">
-        <v>6.1440000000000001</v>
+        <v>5.53</v>
       </c>
       <c r="E16" s="4">
-        <v>16.875</v>
+        <v>19.387755102041002</v>
       </c>
       <c r="F16" s="4">
-        <v>0.46500000000000002</v>
+        <v>0.45100000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15">
@@ -719,19 +736,19 @@
         <v>1</v>
       </c>
       <c r="B17" s="2">
-        <v>0.45779999999999998</v>
+        <v>0.32229999999999998</v>
       </c>
       <c r="C17" s="3">
-        <v>-0.27300000000000002</v>
+        <v>-0.25</v>
       </c>
       <c r="D17" s="4">
-        <v>5.9720000000000004</v>
+        <v>6.1440000000000001</v>
       </c>
       <c r="E17" s="4">
-        <v>13.070422535211</v>
+        <v>16.875</v>
       </c>
       <c r="F17" s="4">
-        <v>0.504</v>
+        <v>0.46500000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15">
@@ -739,19 +756,19 @@
         <v>1</v>
       </c>
       <c r="B18" s="2">
-        <v>0.41749999999999998</v>
+        <v>0.45779999999999998</v>
       </c>
       <c r="C18" s="3">
-        <v>-0.254</v>
+        <v>-0.27300000000000002</v>
       </c>
       <c r="D18" s="4">
-        <v>5.7190000000000003</v>
+        <v>5.9720000000000004</v>
       </c>
       <c r="E18" s="4">
-        <v>18.98</v>
+        <v>13.070422535211</v>
       </c>
       <c r="F18" s="4">
-        <v>0.46300000000000002</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15">
@@ -759,19 +776,19 @@
         <v>1</v>
       </c>
       <c r="B19" s="2">
-        <v>0.50109999999999999</v>
+        <v>0.41749999999999998</v>
       </c>
       <c r="C19" s="3">
-        <v>-0.28000000000000003</v>
+        <v>-0.254</v>
       </c>
       <c r="D19" s="4">
-        <v>5.7720000000000002</v>
+        <v>5.7190000000000003</v>
       </c>
       <c r="E19" s="4">
-        <v>16.561403508771999</v>
+        <v>18.98</v>
       </c>
       <c r="F19" s="4">
-        <v>0.45</v>
+        <v>0.46300000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15">
@@ -779,19 +796,19 @@
         <v>1</v>
       </c>
       <c r="B20" s="2">
-        <v>0.49519999999999997</v>
+        <v>0.50109999999999999</v>
       </c>
       <c r="C20" s="3">
-        <v>-0.27500000000000002</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="D20" s="4">
-        <v>5.8230000000000004</v>
+        <v>5.7720000000000002</v>
       </c>
       <c r="E20" s="4">
-        <v>13.070422535211</v>
+        <v>16.561403508771999</v>
       </c>
       <c r="F20" s="4">
-        <v>0.48399999999999999</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15">
@@ -799,19 +816,19 @@
         <v>1</v>
       </c>
       <c r="B21" s="2">
-        <v>0.42930000000000001</v>
+        <v>0.49519999999999997</v>
       </c>
       <c r="C21" s="3">
-        <v>-0.25900000000000001</v>
+        <v>-0.27500000000000002</v>
       </c>
       <c r="D21" s="4">
-        <v>5.6360000000000001</v>
+        <v>5.8230000000000004</v>
       </c>
       <c r="E21" s="4">
-        <v>20.297872340426</v>
+        <v>13.070422535211</v>
       </c>
       <c r="F21" s="4">
-        <v>0.40699999999999997</v>
+        <v>0.48399999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15">
@@ -819,19 +836,19 @@
         <v>1</v>
       </c>
       <c r="B22" s="2">
-        <v>0.47960000000000003</v>
+        <v>0.42930000000000001</v>
       </c>
       <c r="C22" s="3">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="D22" s="3">
-        <v>5.73</v>
+        <v>-0.25900000000000001</v>
+      </c>
+      <c r="D22" s="4">
+        <v>5.6360000000000001</v>
       </c>
       <c r="E22" s="4">
-        <v>19.428571428571001</v>
+        <v>20.297872340426</v>
       </c>
       <c r="F22" s="4">
-        <v>0.44400000000000001</v>
+        <v>0.40699999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15">
@@ -839,19 +856,19 @@
         <v>1</v>
       </c>
       <c r="B23" s="2">
-        <v>0.52849999999999997</v>
+        <v>0.47960000000000003</v>
       </c>
       <c r="C23" s="3">
-        <v>-0.28599999999999998</v>
-      </c>
-      <c r="D23" s="4">
-        <v>5.66</v>
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="D23" s="3">
+        <v>5.73</v>
       </c>
       <c r="E23" s="4">
-        <v>16.839285714286</v>
+        <v>19.428571428571001</v>
       </c>
       <c r="F23" s="4">
-        <v>0.41699999999999998</v>
+        <v>0.44400000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15">
@@ -859,19 +876,19 @@
         <v>1</v>
       </c>
       <c r="B24" s="2">
-        <v>0.33260000000000001</v>
+        <v>0.52849999999999997</v>
       </c>
       <c r="C24" s="3">
-        <v>-0.22600000000000001</v>
-      </c>
-      <c r="D24" s="6">
-        <v>5.4630000000000001</v>
-      </c>
-      <c r="E24" s="6">
-        <v>15.633333333333001</v>
-      </c>
-      <c r="F24" s="6">
-        <v>0.40400000000000003</v>
+        <v>-0.28599999999999998</v>
+      </c>
+      <c r="D24" s="4">
+        <v>5.66</v>
+      </c>
+      <c r="E24" s="4">
+        <v>16.839285714286</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.41699999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15">
@@ -879,19 +896,19 @@
         <v>1</v>
       </c>
       <c r="B25" s="2">
-        <v>0.40639999999999998</v>
+        <v>0.33260000000000001</v>
       </c>
       <c r="C25" s="3">
-        <v>-0.26200000000000001</v>
+        <v>-0.22600000000000001</v>
       </c>
       <c r="D25" s="6">
-        <v>5.7569999999999997</v>
+        <v>5.4630000000000001</v>
       </c>
       <c r="E25" s="6">
-        <v>12.266666666667</v>
+        <v>15.633333333333001</v>
       </c>
       <c r="F25" s="6">
-        <v>0.439</v>
+        <v>0.40400000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15">
@@ -899,19 +916,19 @@
         <v>1</v>
       </c>
       <c r="B26" s="2">
-        <v>0.51060000000000005</v>
+        <v>0.40639999999999998</v>
       </c>
       <c r="C26" s="3">
-        <v>-0.26800000000000002</v>
+        <v>-0.26200000000000001</v>
       </c>
       <c r="D26" s="6">
-        <v>5.423</v>
+        <v>5.7569999999999997</v>
       </c>
       <c r="E26" s="6">
-        <v>15.096774193548001</v>
+        <v>12.266666666667</v>
       </c>
       <c r="F26" s="6">
-        <v>0.41499999999999998</v>
+        <v>0.439</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15">
@@ -919,19 +936,19 @@
         <v>1</v>
       </c>
       <c r="B27" s="2">
-        <v>0.5373</v>
+        <v>0.51060000000000005</v>
       </c>
       <c r="C27" s="3">
-        <v>-0.29699999999999999</v>
+        <v>-0.26800000000000002</v>
       </c>
       <c r="D27" s="6">
-        <v>5.3810000000000002</v>
-      </c>
-      <c r="E27" s="7">
-        <v>14.4</v>
+        <v>5.423</v>
+      </c>
+      <c r="E27" s="6">
+        <v>15.096774193548001</v>
       </c>
       <c r="F27" s="6">
-        <v>0.379</v>
+        <v>0.41499999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15">
@@ -939,19 +956,19 @@
         <v>1</v>
       </c>
       <c r="B28" s="2">
-        <v>0.38729999999999998</v>
+        <v>0.5373</v>
       </c>
       <c r="C28" s="3">
-        <v>-0.249</v>
+        <v>-0.29699999999999999</v>
       </c>
       <c r="D28" s="6">
-        <v>5.6829999999999998</v>
-      </c>
-      <c r="E28" s="6">
-        <v>15.966101694915</v>
+        <v>5.3810000000000002</v>
+      </c>
+      <c r="E28" s="7">
+        <v>14.4</v>
       </c>
       <c r="F28" s="6">
-        <v>0.40600000000000003</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15">
@@ -959,19 +976,19 @@
         <v>1</v>
       </c>
       <c r="B29" s="2">
-        <v>0.33650000000000002</v>
+        <v>0.38729999999999998</v>
       </c>
       <c r="C29" s="3">
-        <v>-0.22900000000000001</v>
+        <v>-0.249</v>
       </c>
       <c r="D29" s="6">
-        <v>5.72</v>
+        <v>5.6829999999999998</v>
       </c>
       <c r="E29" s="6">
-        <v>17.518518518518999</v>
+        <v>15.966101694915</v>
       </c>
       <c r="F29" s="6">
-        <v>0.435</v>
+        <v>0.40600000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15">
@@ -979,19 +996,19 @@
         <v>1</v>
       </c>
       <c r="B30" s="2">
-        <v>0.38640000000000002</v>
+        <v>0.33650000000000002</v>
       </c>
       <c r="C30" s="3">
-        <v>-0.245</v>
+        <v>-0.22900000000000001</v>
       </c>
       <c r="D30" s="6">
-        <v>5.8650000000000002</v>
+        <v>5.72</v>
       </c>
       <c r="E30" s="6">
-        <v>9.9010989010988997</v>
+        <v>17.518518518518999</v>
       </c>
       <c r="F30" s="6">
-        <v>0.496</v>
+        <v>0.435</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15">
@@ -999,19 +1016,19 @@
         <v>1</v>
       </c>
       <c r="B31" s="2">
-        <v>0.55630000000000002</v>
+        <v>0.38640000000000002</v>
       </c>
       <c r="C31" s="3">
-        <v>-0.29499999999999998</v>
+        <v>-0.245</v>
       </c>
       <c r="D31" s="6">
-        <v>5.665</v>
+        <v>5.8650000000000002</v>
       </c>
       <c r="E31" s="6">
-        <v>13.89552238806</v>
+        <v>9.9010989010988997</v>
       </c>
       <c r="F31" s="6">
-        <v>0.53600000000000003</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15">
@@ -1019,19 +1036,19 @@
         <v>1</v>
       </c>
       <c r="B32" s="2">
-        <v>0.48649999999999999</v>
+        <v>0.55630000000000002</v>
       </c>
       <c r="C32" s="3">
-        <v>-0.28399999999999997</v>
+        <v>-0.29499999999999998</v>
       </c>
       <c r="D32" s="6">
-        <v>5.149</v>
+        <v>5.665</v>
       </c>
       <c r="E32" s="6">
-        <v>17.181818181817999</v>
+        <v>13.89552238806</v>
       </c>
       <c r="F32" s="6">
-        <v>0.46899999999999997</v>
+        <v>0.53600000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15">
@@ -1039,19 +1056,19 @@
         <v>1</v>
       </c>
       <c r="B33" s="2">
-        <v>0.41539999999999999</v>
+        <v>0.48649999999999999</v>
       </c>
       <c r="C33" s="3">
-        <v>-0.255</v>
+        <v>-0.28399999999999997</v>
       </c>
       <c r="D33" s="6">
-        <v>5.4569999999999999</v>
+        <v>5.149</v>
       </c>
       <c r="E33" s="6">
-        <v>17.518518518518999</v>
+        <v>17.181818181817999</v>
       </c>
       <c r="F33" s="6">
-        <v>0.44400000000000001</v>
+        <v>0.46899999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15">
@@ -1059,19 +1076,19 @@
         <v>1</v>
       </c>
       <c r="B34" s="2">
-        <v>0.45839999999999997</v>
+        <v>0.41539999999999999</v>
       </c>
       <c r="C34" s="3">
-        <v>-0.26700000000000002</v>
+        <v>-0.255</v>
       </c>
       <c r="D34" s="6">
-        <v>5.4880000000000004</v>
+        <v>5.4569999999999999</v>
       </c>
       <c r="E34" s="6">
-        <v>15.393442622951</v>
+        <v>17.518518518518999</v>
       </c>
       <c r="F34" s="6">
-        <v>0.41599999999999998</v>
+        <v>0.44400000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15">
@@ -1079,19 +1096,19 @@
         <v>1</v>
       </c>
       <c r="B35" s="2">
-        <v>0.58879999999999999</v>
+        <v>0.45839999999999997</v>
       </c>
       <c r="C35" s="3">
-        <v>-0.309</v>
-      </c>
-      <c r="D35" s="7">
-        <v>5.1100000000000003</v>
+        <v>-0.26700000000000002</v>
+      </c>
+      <c r="D35" s="6">
+        <v>5.4880000000000004</v>
       </c>
       <c r="E35" s="6">
-        <v>14.625</v>
+        <v>15.393442622951</v>
       </c>
       <c r="F35" s="6">
-        <v>0.44500000000000001</v>
+        <v>0.41599999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15">
@@ -1099,19 +1116,19 @@
         <v>1</v>
       </c>
       <c r="B36" s="2">
-        <v>0.28860000000000002</v>
+        <v>0.58879999999999999</v>
       </c>
       <c r="C36" s="3">
-        <v>-0.21</v>
-      </c>
-      <c r="D36" s="6">
-        <v>5.9180000000000001</v>
+        <v>-0.309</v>
+      </c>
+      <c r="D36" s="7">
+        <v>5.1100000000000003</v>
       </c>
       <c r="E36" s="6">
-        <v>17.163636363636002</v>
+        <v>14.625</v>
       </c>
       <c r="F36" s="6">
-        <v>0.5</v>
+        <v>0.44500000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15">
@@ -1119,19 +1136,19 @@
         <v>1</v>
       </c>
       <c r="B37" s="2">
-        <v>0.40870000000000001</v>
+        <v>0.28860000000000002</v>
       </c>
       <c r="C37" s="3">
-        <v>-0.251</v>
+        <v>-0.21</v>
       </c>
       <c r="D37" s="6">
-        <v>5.7939999999999996</v>
+        <v>5.9180000000000001</v>
       </c>
       <c r="E37" s="6">
-        <v>12.459459459459</v>
+        <v>17.163636363636002</v>
       </c>
       <c r="F37" s="6">
-        <v>0.495</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15">
@@ -1139,19 +1156,19 @@
         <v>1</v>
       </c>
       <c r="B38" s="2">
-        <v>0.44429999999999997</v>
+        <v>0.40870000000000001</v>
       </c>
       <c r="C38" s="3">
-        <v>-0.26200000000000001</v>
+        <v>-0.251</v>
       </c>
       <c r="D38" s="6">
-        <v>5.8280000000000003</v>
+        <v>5.7939999999999996</v>
       </c>
       <c r="E38" s="6">
-        <v>23.414634146341001</v>
+        <v>12.459459459459</v>
       </c>
       <c r="F38" s="6">
-        <v>0.42899999999999999</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15">
@@ -1159,19 +1176,19 @@
         <v>1</v>
       </c>
       <c r="B39" s="2">
-        <v>0.4748</v>
+        <v>0.44429999999999997</v>
       </c>
       <c r="C39" s="3">
-        <v>-0.28499999999999998</v>
+        <v>-0.26200000000000001</v>
       </c>
       <c r="D39" s="6">
-        <v>5.3540000000000001</v>
+        <v>5.8280000000000003</v>
       </c>
       <c r="E39" s="6">
-        <v>16.839285714286</v>
+        <v>23.414634146341001</v>
       </c>
       <c r="F39" s="6">
-        <v>0.42499999999999999</v>
+        <v>0.42899999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15">
@@ -1179,19 +1196,19 @@
         <v>1</v>
       </c>
       <c r="B40" s="2">
-        <v>0.46629999999999999</v>
+        <v>0.4748</v>
       </c>
       <c r="C40" s="3">
-        <v>-0.27600000000000002</v>
+        <v>-0.28499999999999998</v>
       </c>
       <c r="D40" s="6">
-        <v>5.1840000000000002</v>
+        <v>5.3540000000000001</v>
       </c>
       <c r="E40" s="6">
-        <v>14.121212121212</v>
+        <v>16.839285714286</v>
       </c>
       <c r="F40" s="6">
-        <v>0.46800000000000003</v>
+        <v>0.42499999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15">
@@ -1199,19 +1216,19 @@
         <v>1</v>
       </c>
       <c r="B41" s="2">
-        <v>0.46920000000000001</v>
+        <v>0.46629999999999999</v>
       </c>
       <c r="C41" s="3">
         <v>-0.27600000000000002</v>
       </c>
       <c r="D41" s="6">
-        <v>5.859</v>
+        <v>5.1840000000000002</v>
       </c>
       <c r="E41" s="6">
-        <v>24.615384615385</v>
+        <v>14.121212121212</v>
       </c>
       <c r="F41" s="6">
-        <v>0.49299999999999999</v>
+        <v>0.46800000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15">
@@ -1219,19 +1236,19 @@
         <v>1</v>
       </c>
       <c r="B42" s="2">
-        <v>0.32929999999999998</v>
+        <v>0.46920000000000001</v>
       </c>
       <c r="C42" s="3">
-        <v>-0.25900000000000001</v>
-      </c>
-      <c r="D42" s="7">
-        <v>5.7</v>
-      </c>
-      <c r="E42" s="7">
-        <v>26</v>
+        <v>-0.27600000000000002</v>
+      </c>
+      <c r="D42" s="6">
+        <v>5.859</v>
+      </c>
+      <c r="E42" s="6">
+        <v>24.615384615385</v>
       </c>
       <c r="F42" s="6">
-        <v>0.51</v>
+        <v>0.49299999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15">
@@ -1239,19 +1256,19 @@
         <v>1</v>
       </c>
       <c r="B43" s="2">
-        <v>0.38940000000000002</v>
+        <v>0.32929999999999998</v>
       </c>
       <c r="C43" s="3">
-        <v>-0.29399999999999998</v>
-      </c>
-      <c r="D43" s="6">
-        <v>5.3920000000000003</v>
-      </c>
-      <c r="E43" s="6">
-        <v>16.561403508771999</v>
+        <v>-0.25900000000000001</v>
+      </c>
+      <c r="D43" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="E43" s="7">
+        <v>26</v>
       </c>
       <c r="F43" s="6">
-        <v>0.46700000000000003</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15">
@@ -1259,19 +1276,19 @@
         <v>1</v>
       </c>
       <c r="B44" s="2">
-        <v>0.34970000000000001</v>
+        <v>0.38940000000000002</v>
       </c>
       <c r="C44" s="3">
-        <v>-0.28000000000000003</v>
+        <v>-0.29399999999999998</v>
       </c>
       <c r="D44" s="6">
-        <v>4.9749999999999996</v>
+        <v>5.3920000000000003</v>
       </c>
       <c r="E44" s="6">
-        <v>25.342105263158</v>
+        <v>16.561403508771999</v>
       </c>
       <c r="F44" s="6">
-        <v>0.40899999999999997</v>
+        <v>0.46700000000000003</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15">
@@ -1279,19 +1296,19 @@
         <v>1</v>
       </c>
       <c r="B45" s="2">
-        <v>0.39629999999999999</v>
+        <v>0.34970000000000001</v>
       </c>
       <c r="C45" s="3">
-        <v>-0.29599999999999999</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="D45" s="6">
-        <v>5.5010000000000003</v>
+        <v>4.9749999999999996</v>
       </c>
       <c r="E45" s="6">
-        <v>19.428571428571001</v>
+        <v>25.342105263158</v>
       </c>
       <c r="F45" s="6">
-        <v>0.44500000000000001</v>
+        <v>0.40899999999999997</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15">
@@ -1299,19 +1316,19 @@
         <v>1</v>
       </c>
       <c r="B46" s="2">
-        <v>0.34939999999999999</v>
+        <v>0.39629999999999999</v>
       </c>
       <c r="C46" s="3">
-        <v>-0.26800000000000002</v>
+        <v>-0.29599999999999999</v>
       </c>
       <c r="D46" s="6">
-        <v>5.6109999999999998</v>
+        <v>5.5010000000000003</v>
       </c>
       <c r="E46" s="6">
-        <v>16.241379310345</v>
+        <v>19.428571428571001</v>
       </c>
       <c r="F46" s="6">
-        <v>0.441</v>
+        <v>0.44500000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15">
@@ -1319,19 +1336,19 @@
         <v>1</v>
       </c>
       <c r="B47" s="2">
-        <v>0.40860000000000002</v>
+        <v>0.34939999999999999</v>
       </c>
       <c r="C47" s="3">
-        <v>-0.30599999999999999</v>
+        <v>-0.26800000000000002</v>
       </c>
       <c r="D47" s="6">
-        <v>5.3929999999999998</v>
-      </c>
-      <c r="E47" s="7">
-        <v>14.4</v>
+        <v>5.6109999999999998</v>
+      </c>
+      <c r="E47" s="6">
+        <v>16.241379310345</v>
       </c>
       <c r="F47" s="6">
-        <v>0.44800000000000001</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15">
@@ -1339,19 +1356,19 @@
         <v>1</v>
       </c>
       <c r="B48" s="2">
-        <v>0.29330000000000001</v>
+        <v>0.40860000000000002</v>
       </c>
       <c r="C48" s="3">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="D48" s="7">
-        <v>5.19</v>
-      </c>
-      <c r="E48" s="6">
-        <v>14.625</v>
+        <v>-0.30599999999999999</v>
+      </c>
+      <c r="D48" s="6">
+        <v>5.3929999999999998</v>
+      </c>
+      <c r="E48" s="7">
+        <v>14.4</v>
       </c>
       <c r="F48" s="6">
-        <v>0.44900000000000001</v>
+        <v>0.44800000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15">
@@ -1359,19 +1376,19 @@
         <v>1</v>
       </c>
       <c r="B49" s="2">
-        <v>0.38219999999999998</v>
+        <v>0.29330000000000001</v>
       </c>
       <c r="C49" s="3">
-        <v>-0.28599999999999998</v>
-      </c>
-      <c r="D49" s="6">
-        <v>5.4160000000000004</v>
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="D49" s="7">
+        <v>5.19</v>
       </c>
       <c r="E49" s="6">
-        <v>16.543859649123</v>
+        <v>14.625</v>
       </c>
       <c r="F49" s="6">
-        <v>0.47199999999999998</v>
+        <v>0.44900000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15">
@@ -1379,19 +1396,19 @@
         <v>1</v>
       </c>
       <c r="B50" s="2">
-        <v>0.33200000000000002</v>
+        <v>0.38219999999999998</v>
       </c>
       <c r="C50" s="3">
-        <v>-0.26300000000000001</v>
+        <v>-0.28599999999999998</v>
       </c>
       <c r="D50" s="6">
-        <v>5.7220000000000004</v>
+        <v>5.4160000000000004</v>
       </c>
       <c r="E50" s="6">
         <v>16.543859649123</v>
       </c>
       <c r="F50" s="6">
-        <v>0.45700000000000002</v>
+        <v>0.47199999999999998</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15">
@@ -1399,19 +1416,19 @@
         <v>1</v>
       </c>
       <c r="B51" s="2">
-        <v>0.32540000000000002</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="C51" s="3">
-        <v>-0.26500000000000001</v>
+        <v>-0.26300000000000001</v>
       </c>
       <c r="D51" s="6">
-        <v>5.7080000000000002</v>
+        <v>5.7220000000000004</v>
       </c>
       <c r="E51" s="6">
-        <v>15.145161290322999</v>
+        <v>16.543859649123</v>
       </c>
       <c r="F51" s="6">
-        <v>0.43099999999999999</v>
+        <v>0.45700000000000002</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15">
@@ -1419,39 +1436,39 @@
         <v>1</v>
       </c>
       <c r="B52" s="2">
+        <v>0.32540000000000002</v>
+      </c>
+      <c r="C52" s="3">
+        <v>-0.26500000000000001</v>
+      </c>
+      <c r="D52" s="6">
+        <v>5.7080000000000002</v>
+      </c>
+      <c r="E52" s="6">
+        <v>15.145161290322999</v>
+      </c>
+      <c r="F52" s="6">
+        <v>0.43099999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15">
+      <c r="A53" s="1">
+        <v>1</v>
+      </c>
+      <c r="B53" s="2">
         <v>0.31740000000000002</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C53" s="3">
         <v>-0.26300000000000001</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D53" s="7">
         <v>5.42</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E53" s="6">
         <v>11.333333333333</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F53" s="6">
         <v>0.42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15">
-      <c r="A53" s="8">
-        <v>2</v>
-      </c>
-      <c r="B53" s="2">
-        <v>0.30659999999999998</v>
-      </c>
-      <c r="C53" s="3">
-        <v>-0.253</v>
-      </c>
-      <c r="D53" s="6">
-        <v>5.9550000000000001</v>
-      </c>
-      <c r="E53" s="6">
-        <v>20.276595744681</v>
-      </c>
-      <c r="F53" s="6">
-        <v>0.45600000000000002</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15">
@@ -1459,16 +1476,16 @@
         <v>2</v>
       </c>
       <c r="B54" s="2">
-        <v>0.29870000000000002</v>
+        <v>0.30659999999999998</v>
       </c>
       <c r="C54" s="3">
-        <v>-0.25</v>
+        <v>-0.253</v>
       </c>
       <c r="D54" s="6">
-        <v>6.0970000000000004</v>
+        <v>5.9550000000000001</v>
       </c>
       <c r="E54" s="6">
-        <v>16.875</v>
+        <v>20.276595744681</v>
       </c>
       <c r="F54" s="6">
         <v>0.45600000000000002</v>
@@ -1479,19 +1496,19 @@
         <v>2</v>
       </c>
       <c r="B55" s="2">
-        <v>0.26919999999999999</v>
+        <v>0.29870000000000002</v>
       </c>
       <c r="C55" s="3">
-        <v>-0.22700000000000001</v>
+        <v>-0.25</v>
       </c>
       <c r="D55" s="6">
-        <v>5.8890000000000002</v>
+        <v>6.0970000000000004</v>
       </c>
       <c r="E55" s="6">
-        <v>19.428571428571001</v>
+        <v>16.875</v>
       </c>
       <c r="F55" s="6">
-        <v>0.47</v>
+        <v>0.45600000000000002</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15">
@@ -1499,19 +1516,19 @@
         <v>2</v>
       </c>
       <c r="B56" s="2">
-        <v>0.25290000000000001</v>
+        <v>0.26919999999999999</v>
       </c>
       <c r="C56" s="3">
-        <v>-0.221</v>
+        <v>-0.22700000000000001</v>
       </c>
       <c r="D56" s="6">
-        <v>6.1879999999999997</v>
+        <v>5.8890000000000002</v>
       </c>
       <c r="E56" s="6">
-        <v>18.25</v>
+        <v>19.428571428571001</v>
       </c>
       <c r="F56" s="6">
-        <v>0.48099999999999998</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15">
@@ -1519,19 +1536,19 @@
         <v>2</v>
       </c>
       <c r="B57" s="2">
-        <v>0.31890000000000002</v>
+        <v>0.25290000000000001</v>
       </c>
       <c r="C57" s="3">
-        <v>-0.25600000000000001</v>
+        <v>-0.221</v>
       </c>
       <c r="D57" s="6">
-        <v>6.133</v>
+        <v>6.1879999999999997</v>
       </c>
       <c r="E57" s="6">
         <v>18.25</v>
       </c>
       <c r="F57" s="6">
-        <v>0.45400000000000001</v>
+        <v>0.48099999999999998</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15">
@@ -1539,19 +1556,19 @@
         <v>2</v>
       </c>
       <c r="B58" s="2">
-        <v>0.32390000000000002</v>
+        <v>0.31890000000000002</v>
       </c>
       <c r="C58" s="3">
-        <v>-0.25800000000000001</v>
+        <v>-0.25600000000000001</v>
       </c>
       <c r="D58" s="6">
-        <v>6.0220000000000002</v>
+        <v>6.133</v>
       </c>
       <c r="E58" s="6">
-        <v>15.409836065574</v>
+        <v>18.25</v>
       </c>
       <c r="F58" s="6">
-        <v>0.48199999999999998</v>
+        <v>0.45400000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15">
@@ -1559,19 +1576,19 @@
         <v>2</v>
       </c>
       <c r="B59" s="2">
-        <v>0.36709999999999998</v>
+        <v>0.32390000000000002</v>
       </c>
       <c r="C59" s="3">
-        <v>-0.27800000000000002</v>
+        <v>-0.25800000000000001</v>
       </c>
       <c r="D59" s="6">
-        <v>5.633</v>
+        <v>6.0220000000000002</v>
       </c>
       <c r="E59" s="6">
-        <v>17.867924528302002</v>
-      </c>
-      <c r="F59" s="5">
-        <v>0.45300000000000001</v>
+        <v>15.409836065574</v>
+      </c>
+      <c r="F59" s="6">
+        <v>0.48199999999999998</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15">
@@ -1579,19 +1596,19 @@
         <v>2</v>
       </c>
       <c r="B60" s="2">
-        <v>0.28539999999999999</v>
+        <v>0.36709999999999998</v>
       </c>
       <c r="C60" s="3">
-        <v>-0.23499999999999999</v>
+        <v>-0.27800000000000002</v>
       </c>
       <c r="D60" s="6">
-        <v>5.6459999999999999</v>
+        <v>5.633</v>
       </c>
       <c r="E60" s="6">
-        <v>15.949152542373</v>
-      </c>
-      <c r="F60" s="6">
-        <v>0.38600000000000001</v>
+        <v>17.867924528302002</v>
+      </c>
+      <c r="F60" s="5">
+        <v>0.45300000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15">
@@ -1599,19 +1616,19 @@
         <v>2</v>
       </c>
       <c r="B61" s="2">
-        <v>0.27960000000000002</v>
+        <v>0.28539999999999999</v>
       </c>
       <c r="C61" s="3">
-        <v>-0.23300000000000001</v>
+        <v>-0.23499999999999999</v>
       </c>
       <c r="D61" s="6">
-        <v>5.5650000000000004</v>
+        <v>5.6459999999999999</v>
       </c>
       <c r="E61" s="6">
-        <v>18.25</v>
+        <v>15.949152542373</v>
       </c>
       <c r="F61" s="6">
-        <v>0.42799999999999999</v>
+        <v>0.38600000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15">
@@ -1619,19 +1636,19 @@
         <v>2</v>
       </c>
       <c r="B62" s="2">
-        <v>0.33929999999999999</v>
+        <v>0.27960000000000002</v>
       </c>
       <c r="C62" s="3">
-        <v>-0.26700000000000002</v>
+        <v>-0.23300000000000001</v>
       </c>
       <c r="D62" s="6">
-        <v>5.5789999999999997</v>
+        <v>5.5650000000000004</v>
       </c>
       <c r="E62" s="6">
-        <v>16.241379310345</v>
+        <v>18.25</v>
       </c>
       <c r="F62" s="6">
-        <v>0.42199999999999999</v>
+        <v>0.42799999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15">
@@ -1639,19 +1656,19 @@
         <v>2</v>
       </c>
       <c r="B63" s="2">
-        <v>0.33050000000000002</v>
+        <v>0.33929999999999999</v>
       </c>
       <c r="C63" s="3">
-        <v>-0.26100000000000001</v>
+        <v>-0.26700000000000002</v>
       </c>
       <c r="D63" s="6">
-        <v>5.5060000000000002</v>
+        <v>5.5789999999999997</v>
       </c>
       <c r="E63" s="6">
-        <v>20.760869565217</v>
+        <v>16.241379310345</v>
       </c>
       <c r="F63" s="6">
-        <v>0.308</v>
+        <v>0.42199999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15">
@@ -1659,19 +1676,19 @@
         <v>2</v>
       </c>
       <c r="B64" s="2">
-        <v>0.38179999999999997</v>
+        <v>0.33050000000000002</v>
       </c>
       <c r="C64" s="3">
-        <v>-0.28399999999999997</v>
+        <v>-0.26100000000000001</v>
       </c>
       <c r="D64" s="6">
-        <v>5.891</v>
+        <v>5.5060000000000002</v>
       </c>
       <c r="E64" s="6">
-        <v>23.975000000000001</v>
+        <v>20.760869565217</v>
       </c>
       <c r="F64" s="6">
-        <v>0.50900000000000001</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15">
@@ -1679,19 +1696,19 @@
         <v>2</v>
       </c>
       <c r="B65" s="2">
-        <v>0.34910000000000002</v>
+        <v>0.38179999999999997</v>
       </c>
       <c r="C65" s="3">
-        <v>-0.26300000000000001</v>
+        <v>-0.28399999999999997</v>
       </c>
       <c r="D65" s="6">
-        <v>6.056</v>
+        <v>5.891</v>
       </c>
       <c r="E65" s="6">
-        <v>29.333333333333002</v>
+        <v>23.975000000000001</v>
       </c>
       <c r="F65" s="6">
-        <v>0.48299999999999998</v>
+        <v>0.50900000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15">
@@ -1699,19 +1716,19 @@
         <v>2</v>
       </c>
       <c r="B66" s="2">
-        <v>0.35499999999999998</v>
+        <v>0.34910000000000002</v>
       </c>
       <c r="C66" s="3">
-        <v>-0.26700000000000002</v>
+        <v>-0.26300000000000001</v>
       </c>
       <c r="D66" s="6">
-        <v>6.1609999999999996</v>
+        <v>6.056</v>
       </c>
       <c r="E66" s="6">
-        <v>22.785714285714</v>
+        <v>29.333333333333002</v>
       </c>
       <c r="F66" s="6">
-        <v>0.47299999999999998</v>
+        <v>0.48299999999999998</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15">
@@ -1719,59 +1736,59 @@
         <v>2</v>
       </c>
       <c r="B67" s="2">
-        <v>0.35220000000000001</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="C67" s="3">
-        <v>-0.27600000000000002</v>
+        <v>-0.26700000000000002</v>
       </c>
       <c r="D67" s="6">
-        <v>5.74</v>
+        <v>6.1609999999999996</v>
       </c>
       <c r="E67" s="6">
-        <v>20.297872340426</v>
+        <v>22.785714285714</v>
       </c>
       <c r="F67" s="6">
-        <v>0.38300000000000001</v>
+        <v>0.47299999999999998</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15">
       <c r="A68" s="8">
         <v>2</v>
       </c>
-      <c r="B68" s="6">
-        <v>0.33189999999999997</v>
+      <c r="B68" s="2">
+        <v>0.35220000000000001</v>
       </c>
       <c r="C68" s="3">
-        <v>-0.25700000000000001</v>
+        <v>-0.27600000000000002</v>
       </c>
       <c r="D68" s="6">
-        <v>5.9820000000000002</v>
+        <v>5.74</v>
       </c>
       <c r="E68" s="6">
-        <v>31.290322580645</v>
+        <v>20.297872340426</v>
       </c>
       <c r="F68" s="6">
-        <v>0.51900000000000002</v>
+        <v>0.38300000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15">
       <c r="A69" s="8">
         <v>2</v>
       </c>
-      <c r="B69" s="2">
-        <v>0.38640000000000002</v>
+      <c r="B69" s="6">
+        <v>0.33189999999999997</v>
       </c>
       <c r="C69" s="3">
-        <v>-0.28599999999999998</v>
+        <v>-0.25700000000000001</v>
       </c>
       <c r="D69" s="6">
-        <v>5.798</v>
+        <v>5.9820000000000002</v>
       </c>
       <c r="E69" s="6">
-        <v>28.411764705882</v>
+        <v>31.290322580645</v>
       </c>
       <c r="F69" s="6">
-        <v>0.49</v>
+        <v>0.51900000000000002</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15">
@@ -1779,19 +1796,19 @@
         <v>2</v>
       </c>
       <c r="B70" s="2">
-        <v>0.34439999999999998</v>
+        <v>0.38640000000000002</v>
       </c>
       <c r="C70" s="3">
-        <v>-0.26600000000000001</v>
+        <v>-0.28599999999999998</v>
       </c>
       <c r="D70" s="6">
-        <v>6.0609999999999999</v>
+        <v>5.798</v>
       </c>
       <c r="E70" s="6">
-        <v>28.441176470588001</v>
+        <v>28.411764705882</v>
       </c>
       <c r="F70" s="6">
-        <v>0.52200000000000002</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15">
@@ -1799,19 +1816,19 @@
         <v>2</v>
       </c>
       <c r="B71" s="2">
-        <v>0.32850000000000001</v>
+        <v>0.34439999999999998</v>
       </c>
       <c r="C71" s="3">
-        <v>-0.253</v>
+        <v>-0.26600000000000001</v>
       </c>
       <c r="D71" s="6">
-        <v>5.9269999999999996</v>
+        <v>6.0609999999999999</v>
       </c>
       <c r="E71" s="6">
-        <v>34.714285714286</v>
+        <v>28.441176470588001</v>
       </c>
       <c r="F71" s="6">
-        <v>0.45500000000000002</v>
+        <v>0.52200000000000002</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15">
@@ -1819,19 +1836,19 @@
         <v>2</v>
       </c>
       <c r="B72" s="2">
-        <v>0.27050000000000002</v>
+        <v>0.32850000000000001</v>
       </c>
       <c r="C72" s="3">
-        <v>-0.22700000000000001</v>
+        <v>-0.253</v>
       </c>
       <c r="D72" s="6">
-        <v>5.6429999999999998</v>
+        <v>5.9269999999999996</v>
       </c>
       <c r="E72" s="6">
-        <v>32.366666666667001</v>
+        <v>34.714285714286</v>
       </c>
       <c r="F72" s="6">
-        <v>0.38600000000000001</v>
+        <v>0.45500000000000002</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15">
@@ -1839,19 +1856,19 @@
         <v>2</v>
       </c>
       <c r="B73" s="2">
-        <v>0.32529999999999998</v>
+        <v>0.27050000000000002</v>
       </c>
       <c r="C73" s="3">
-        <v>-0.26</v>
+        <v>-0.22700000000000001</v>
       </c>
       <c r="D73" s="6">
-        <v>5.6280000000000001</v>
+        <v>5.6429999999999998</v>
       </c>
       <c r="E73" s="6">
-        <v>49.05</v>
+        <v>32.366666666667001</v>
       </c>
       <c r="F73" s="6">
-        <v>0.38100000000000001</v>
+        <v>0.38600000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15">
@@ -1859,19 +1876,19 @@
         <v>2</v>
       </c>
       <c r="B74" s="2">
-        <v>0.44640000000000002</v>
+        <v>0.32529999999999998</v>
       </c>
       <c r="C74" s="3">
-        <v>-0.27400000000000002</v>
-      </c>
-      <c r="D74" s="7">
-        <v>5.26</v>
+        <v>-0.26</v>
+      </c>
+      <c r="D74" s="6">
+        <v>5.6280000000000001</v>
       </c>
       <c r="E74" s="6">
-        <v>16.857142857143</v>
+        <v>49.05</v>
       </c>
       <c r="F74" s="6">
-        <v>0.39</v>
+        <v>0.38100000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15">
@@ -1879,19 +1896,19 @@
         <v>2</v>
       </c>
       <c r="B75" s="2">
-        <v>0.4294</v>
+        <v>0.44640000000000002</v>
       </c>
       <c r="C75" s="3">
-        <v>-0.26800000000000002</v>
-      </c>
-      <c r="D75" s="6">
-        <v>5.3819999999999997</v>
+        <v>-0.27400000000000002</v>
+      </c>
+      <c r="D75" s="7">
+        <v>5.26</v>
       </c>
       <c r="E75" s="6">
-        <v>14.166666666667</v>
+        <v>16.857142857143</v>
       </c>
       <c r="F75" s="6">
-        <v>0.42699999999999999</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15">
@@ -1899,19 +1916,19 @@
         <v>2</v>
       </c>
       <c r="B76" s="2">
-        <v>0.3957</v>
+        <v>0.4294</v>
       </c>
       <c r="C76" s="3">
-        <v>-0.28699999999999998</v>
+        <v>-0.26800000000000002</v>
       </c>
       <c r="D76" s="6">
-        <v>5.9749999999999996</v>
+        <v>5.3819999999999997</v>
       </c>
       <c r="E76" s="6">
-        <v>23.975000000000001</v>
+        <v>14.166666666667</v>
       </c>
       <c r="F76" s="6">
-        <v>0.501</v>
+        <v>0.42699999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15">
@@ -1919,19 +1936,19 @@
         <v>2</v>
       </c>
       <c r="B77" s="2">
-        <v>0.29470000000000002</v>
+        <v>0.3957</v>
       </c>
       <c r="C77" s="3">
-        <v>-0.24099999999999999</v>
+        <v>-0.28699999999999998</v>
       </c>
       <c r="D77" s="6">
-        <v>5.9029999999999996</v>
+        <v>5.9749999999999996</v>
       </c>
       <c r="E77" s="6">
-        <v>20.760869565217</v>
+        <v>23.975000000000001</v>
       </c>
       <c r="F77" s="6">
-        <v>0.49099999999999999</v>
+        <v>0.501</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15">
@@ -1939,19 +1956,19 @@
         <v>2</v>
       </c>
       <c r="B78" s="2">
-        <v>0.29170000000000001</v>
+        <v>0.29470000000000002</v>
       </c>
       <c r="C78" s="3">
-        <v>-0.23599999999999999</v>
+        <v>-0.24099999999999999</v>
       </c>
       <c r="D78" s="6">
-        <v>6.01</v>
+        <v>5.9029999999999996</v>
       </c>
       <c r="E78" s="6">
-        <v>25.289473684211</v>
+        <v>20.760869565217</v>
       </c>
       <c r="F78" s="6">
-        <v>0.45600000000000002</v>
+        <v>0.49099999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15">
@@ -1959,19 +1976,19 @@
         <v>2</v>
       </c>
       <c r="B79" s="2">
-        <v>0.34539999999999998</v>
+        <v>0.29170000000000001</v>
       </c>
       <c r="C79" s="3">
-        <v>-0.26500000000000001</v>
+        <v>-0.23599999999999999</v>
       </c>
       <c r="D79" s="6">
-        <v>5.9459999999999997</v>
+        <v>6.01</v>
       </c>
       <c r="E79" s="6">
-        <v>27.6</v>
+        <v>25.289473684211</v>
       </c>
       <c r="F79" s="6">
-        <v>0.46100000000000002</v>
+        <v>0.45600000000000002</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15">
@@ -1979,19 +1996,19 @@
         <v>2</v>
       </c>
       <c r="B80" s="2">
-        <v>0.32519999999999999</v>
+        <v>0.34539999999999998</v>
       </c>
       <c r="C80" s="3">
-        <v>-0.255</v>
+        <v>-0.26500000000000001</v>
       </c>
       <c r="D80" s="6">
-        <v>6.0730000000000004</v>
+        <v>5.9459999999999997</v>
       </c>
       <c r="E80" s="6">
-        <v>17.518518518518999</v>
+        <v>27.6</v>
       </c>
       <c r="F80" s="6">
-        <v>0.496</v>
+        <v>0.46100000000000002</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15">
@@ -1999,19 +2016,19 @@
         <v>2</v>
       </c>
       <c r="B81" s="2">
-        <v>0.25</v>
+        <v>0.32519999999999999</v>
       </c>
       <c r="C81" s="3">
-        <v>-0.21099999999999999</v>
-      </c>
-      <c r="D81" s="7">
-        <v>5.8</v>
+        <v>-0.255</v>
+      </c>
+      <c r="D81" s="6">
+        <v>6.0730000000000004</v>
       </c>
       <c r="E81" s="6">
-        <v>20.695652173913</v>
+        <v>17.518518518518999</v>
       </c>
       <c r="F81" s="6">
-        <v>0.53500000000000003</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15">
@@ -2019,19 +2036,19 @@
         <v>2</v>
       </c>
       <c r="B82" s="2">
-        <v>0.37569999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="C82" s="3">
-        <v>-0.28899999999999998</v>
-      </c>
-      <c r="D82" s="6">
-        <v>5.4210000000000003</v>
+        <v>-0.21099999999999999</v>
+      </c>
+      <c r="D82" s="7">
+        <v>5.8</v>
       </c>
       <c r="E82" s="6">
-        <v>29.303030303029999</v>
+        <v>20.695652173913</v>
       </c>
       <c r="F82" s="6">
-        <v>0.45</v>
+        <v>0.53500000000000003</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15">
@@ -2039,19 +2056,19 @@
         <v>2</v>
       </c>
       <c r="B83" s="2">
-        <v>0.41739999999999999</v>
+        <v>0.37569999999999998</v>
       </c>
       <c r="C83" s="3">
-        <v>-0.30299999999999999</v>
+        <v>-0.28899999999999998</v>
       </c>
       <c r="D83" s="6">
-        <v>5.492</v>
+        <v>5.4210000000000003</v>
       </c>
       <c r="E83" s="6">
-        <v>23.390243902439</v>
+        <v>29.303030303029999</v>
       </c>
       <c r="F83" s="6">
-        <v>0.46600000000000003</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15">
@@ -2059,19 +2076,19 @@
         <v>2</v>
       </c>
       <c r="B84" s="2">
-        <v>0.30399999999999999</v>
+        <v>0.41739999999999999</v>
       </c>
       <c r="C84" s="3">
-        <v>-0.248</v>
+        <v>-0.30299999999999999</v>
       </c>
       <c r="D84" s="6">
-        <v>5.516</v>
+        <v>5.492</v>
       </c>
       <c r="E84" s="6">
-        <v>22.232558139535001</v>
+        <v>23.390243902439</v>
       </c>
       <c r="F84" s="6">
-        <v>0.41899999999999998</v>
+        <v>0.46600000000000003</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15">
@@ -2079,19 +2096,19 @@
         <v>2</v>
       </c>
       <c r="B85" s="2">
-        <v>0.34660000000000002</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="C85" s="3">
-        <v>-0.28299999999999997</v>
+        <v>-0.248</v>
       </c>
       <c r="D85" s="6">
-        <v>5.4189999999999996</v>
+        <v>5.516</v>
       </c>
       <c r="E85" s="6">
-        <v>19.833333333333002</v>
+        <v>22.232558139535001</v>
       </c>
       <c r="F85" s="6">
-        <v>0.46100000000000002</v>
+        <v>0.41899999999999998</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15">
@@ -2099,19 +2116,19 @@
         <v>2</v>
       </c>
       <c r="B86" s="2">
-        <v>0.31780000000000003</v>
+        <v>0.34660000000000002</v>
       </c>
       <c r="C86" s="3">
-        <v>-0.255</v>
+        <v>-0.28299999999999997</v>
       </c>
       <c r="D86" s="6">
-        <v>6.4139999999999997</v>
+        <v>5.4189999999999996</v>
       </c>
       <c r="E86" s="6">
-        <v>22.785714285714</v>
+        <v>19.833333333333002</v>
       </c>
       <c r="F86" s="6">
-        <v>0.47699999999999998</v>
+        <v>0.46100000000000002</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15">
@@ -2119,19 +2136,19 @@
         <v>2</v>
       </c>
       <c r="B87" s="2">
-        <v>0.25779999999999997</v>
+        <v>0.31780000000000003</v>
       </c>
       <c r="C87" s="3">
-        <v>-0.218</v>
+        <v>-0.255</v>
       </c>
       <c r="D87" s="6">
-        <v>6.4660000000000002</v>
+        <v>6.4139999999999997</v>
       </c>
       <c r="E87" s="6">
-        <v>21.75</v>
+        <v>22.785714285714</v>
       </c>
       <c r="F87" s="6">
-        <v>0.48599999999999999</v>
+        <v>0.47699999999999998</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15">
@@ -2139,19 +2156,19 @@
         <v>2</v>
       </c>
       <c r="B88" s="2">
-        <v>0.29420000000000002</v>
+        <v>0.25779999999999997</v>
       </c>
       <c r="C88" s="3">
-        <v>-0.24199999999999999</v>
-      </c>
-      <c r="D88" s="7">
-        <v>5.93</v>
+        <v>-0.218</v>
+      </c>
+      <c r="D88" s="6">
+        <v>6.4660000000000002</v>
       </c>
       <c r="E88" s="6">
-        <v>20.297872340426</v>
+        <v>21.75</v>
       </c>
       <c r="F88" s="6">
-        <v>0.45500000000000002</v>
+        <v>0.48599999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15">
@@ -2159,19 +2176,19 @@
         <v>2</v>
       </c>
       <c r="B89" s="2">
-        <v>0.30220000000000002</v>
+        <v>0.29420000000000002</v>
       </c>
       <c r="C89" s="3">
-        <v>-0.251</v>
-      </c>
-      <c r="D89" s="6">
-        <v>5.8280000000000003</v>
+        <v>-0.24199999999999999</v>
+      </c>
+      <c r="D89" s="7">
+        <v>5.93</v>
       </c>
       <c r="E89" s="6">
-        <v>26.054054054053999</v>
+        <v>20.297872340426</v>
       </c>
       <c r="F89" s="6">
-        <v>0.44700000000000001</v>
+        <v>0.45500000000000002</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15">
@@ -2179,19 +2196,19 @@
         <v>2</v>
       </c>
       <c r="B90" s="2">
-        <v>0.31780000000000003</v>
+        <v>0.30220000000000002</v>
       </c>
       <c r="C90" s="3">
-        <v>-0.25900000000000001</v>
+        <v>-0.251</v>
       </c>
       <c r="D90" s="6">
-        <v>6.085</v>
+        <v>5.8280000000000003</v>
       </c>
       <c r="E90" s="6">
-        <v>23.975000000000001</v>
+        <v>26.054054054053999</v>
       </c>
       <c r="F90" s="6">
-        <v>0.43099999999999999</v>
+        <v>0.44700000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15">
@@ -2199,19 +2216,19 @@
         <v>2</v>
       </c>
       <c r="B91" s="2">
-        <v>0.3503</v>
+        <v>0.31780000000000003</v>
       </c>
       <c r="C91" s="3">
-        <v>-0.27500000000000002</v>
+        <v>-0.25900000000000001</v>
       </c>
       <c r="D91" s="6">
-        <v>6.2069999999999999</v>
+        <v>6.085</v>
       </c>
       <c r="E91" s="6">
-        <v>23.414634146341001</v>
+        <v>23.975000000000001</v>
       </c>
       <c r="F91" s="6">
-        <v>0.443</v>
+        <v>0.43099999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15">
@@ -2219,19 +2236,19 @@
         <v>2</v>
       </c>
       <c r="B92" s="2">
-        <v>0.26440000000000002</v>
+        <v>0.3503</v>
       </c>
       <c r="C92" s="3">
-        <v>-0.23</v>
+        <v>-0.27500000000000002</v>
       </c>
       <c r="D92" s="6">
-        <v>5.9729999999999999</v>
+        <v>6.2069999999999999</v>
       </c>
       <c r="E92" s="6">
-        <v>21.75</v>
+        <v>23.414634146341001</v>
       </c>
       <c r="F92" s="6">
-        <v>0.48299999999999998</v>
+        <v>0.443</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15">
@@ -2239,19 +2256,19 @@
         <v>2</v>
       </c>
       <c r="B93" s="2">
-        <v>0.21890000000000001</v>
+        <v>0.26440000000000002</v>
       </c>
       <c r="C93" s="3">
-        <v>-0.19500000000000001</v>
-      </c>
-      <c r="D93" s="7">
-        <v>6.24</v>
+        <v>-0.23</v>
+      </c>
+      <c r="D93" s="6">
+        <v>5.9729999999999999</v>
       </c>
       <c r="E93" s="6">
         <v>21.75</v>
       </c>
       <c r="F93" s="6">
-        <v>0.46600000000000003</v>
+        <v>0.48299999999999998</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15">
@@ -2259,19 +2276,19 @@
         <v>2</v>
       </c>
       <c r="B94" s="2">
-        <v>0.21820000000000001</v>
+        <v>0.21890000000000001</v>
       </c>
       <c r="C94" s="3">
         <v>-0.19500000000000001</v>
       </c>
-      <c r="D94" s="6">
-        <v>6.2329999999999997</v>
+      <c r="D94" s="7">
+        <v>6.24</v>
       </c>
       <c r="E94" s="6">
         <v>21.75</v>
       </c>
       <c r="F94" s="6">
-        <v>0.46</v>
+        <v>0.46600000000000003</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15">
@@ -2279,19 +2296,19 @@
         <v>2</v>
       </c>
       <c r="B95" s="2">
-        <v>0.22900000000000001</v>
+        <v>0.21820000000000001</v>
       </c>
       <c r="C95" s="3">
-        <v>-0.19900000000000001</v>
+        <v>-0.19500000000000001</v>
       </c>
       <c r="D95" s="6">
-        <v>5.9749999999999996</v>
+        <v>6.2329999999999997</v>
       </c>
       <c r="E95" s="6">
-        <v>18.627450980391998</v>
+        <v>21.75</v>
       </c>
       <c r="F95" s="6">
-        <v>0.46700000000000003</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15">
@@ -2299,19 +2316,19 @@
         <v>2</v>
       </c>
       <c r="B96" s="2">
-        <v>0.30280000000000001</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="C96" s="3">
-        <v>-0.246</v>
+        <v>-0.19900000000000001</v>
       </c>
       <c r="D96" s="6">
-        <v>6.02</v>
+        <v>5.9749999999999996</v>
       </c>
       <c r="E96" s="6">
-        <v>22.785714285714</v>
+        <v>18.627450980391998</v>
       </c>
       <c r="F96" s="6">
-        <v>0.47399999999999998</v>
+        <v>0.46700000000000003</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="15">
@@ -2319,19 +2336,19 @@
         <v>2</v>
       </c>
       <c r="B97" s="2">
-        <v>0.34749999999999998</v>
+        <v>0.30280000000000001</v>
       </c>
       <c r="C97" s="3">
-        <v>-0.26700000000000002</v>
+        <v>-0.246</v>
       </c>
       <c r="D97" s="6">
-        <v>5.992</v>
+        <v>6.02</v>
       </c>
       <c r="E97" s="6">
-        <v>21.727272727273</v>
+        <v>22.785714285714</v>
       </c>
       <c r="F97" s="6">
-        <v>0.44400000000000001</v>
+        <v>0.47399999999999998</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="15">
@@ -2339,18 +2356,38 @@
         <v>2</v>
       </c>
       <c r="B98" s="2">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="C98" s="3">
+        <v>-0.26700000000000002</v>
+      </c>
+      <c r="D98" s="6">
+        <v>5.992</v>
+      </c>
+      <c r="E98" s="6">
+        <v>21.727272727273</v>
+      </c>
+      <c r="F98" s="6">
+        <v>0.44400000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15">
+      <c r="A99" s="8">
+        <v>2</v>
+      </c>
+      <c r="B99" s="2">
         <v>0.31190000000000001</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C99" s="3">
         <v>-0.254</v>
       </c>
-      <c r="D98" s="7">
+      <c r="D99" s="7">
         <v>5.92</v>
       </c>
-      <c r="E98" s="6">
+      <c r="E99" s="6">
         <v>29.272727272727</v>
       </c>
-      <c r="F98" s="6">
+      <c r="F99" s="6">
         <v>0.56200000000000006</v>
       </c>
     </row>
